--- a/public/imports/zu_otvody.xlsx
+++ b/public/imports/zu_otvody.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\kmg-dashboard\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593D9B51-0CA3-462A-A827-216585AC7E66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB624A8-A73D-475D-8711-562864AF095E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>ГУ-24</t>
   </si>
   <si>
-    <t>ЗУ-24б</t>
-  </si>
-  <si>
     <t>UZN_0907</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>ГУ-22</t>
   </si>
   <si>
-    <t>ЗУ-22б</t>
-  </si>
-  <si>
     <t>UZN_0799</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
     <t>UZN_9181</t>
   </si>
   <si>
-    <t>ЗУ-107б</t>
-  </si>
-  <si>
     <t>UZN_0711</t>
   </si>
   <si>
@@ -535,6 +526,15 @@
   </si>
   <si>
     <t>UZN_6696</t>
+  </si>
+  <si>
+    <t>ЗУ-107Б</t>
+  </si>
+  <si>
+    <t>ЗУ-22Б</t>
+  </si>
+  <si>
+    <t>ЗУ-24Б</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="P92" sqref="P92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -926,450 +926,450 @@
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1">
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1">
         <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1">
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="1">
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1">
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1">
         <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1380,10 +1380,10 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1394,10 +1394,10 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1408,10 +1408,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1422,10 +1422,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1436,10 +1436,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1450,10 +1450,10 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1464,10 +1464,10 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1478,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1492,10 +1492,10 @@
         <v>10</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1506,10 +1506,10 @@
         <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1520,10 +1520,10 @@
         <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1534,10 +1534,10 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1548,10 +1548,10 @@
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1562,10 +1562,10 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1576,10 +1576,10 @@
         <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1590,10 +1590,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1604,10 +1604,10 @@
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1618,10 +1618,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1632,10 +1632,10 @@
         <v>13</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1646,10 +1646,10 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1660,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1674,10 +1674,10 @@
         <v>14</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1688,10 +1688,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1702,10 +1702,10 @@
         <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1716,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1730,10 +1730,10 @@
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1744,10 +1744,10 @@
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1758,10 +1758,10 @@
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1772,10 +1772,10 @@
         <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1786,10 +1786,10 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1800,10 +1800,10 @@
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1814,10 +1814,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1828,10 +1828,10 @@
         <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1842,10 +1842,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1856,10 +1856,10 @@
         <v>10</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1870,10 +1870,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1884,10 +1884,10 @@
         <v>12</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1898,10 +1898,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1912,10 +1912,10 @@
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1926,10 +1926,10 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1940,10 +1940,10 @@
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1954,10 +1954,10 @@
         <v>14</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1968,10 +1968,10 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1982,10 +1982,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -1996,10 +1996,10 @@
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -2010,10 +2010,10 @@
         <v>11</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -2024,10 +2024,10 @@
         <v>13</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -2038,10 +2038,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -2052,948 +2052,948 @@
         <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B83" s="1">
         <v>6</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B84" s="1">
         <v>13</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B85" s="1">
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B86" s="1">
         <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B87" s="1">
         <v>8</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" s="1">
         <v>11</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B89" s="1">
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B90" s="1">
         <v>14</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B91" s="1">
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B92" s="1">
         <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1">
         <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1">
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1">
         <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" s="1">
         <v>10</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B99" s="1">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B100" s="1">
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B101" s="1">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B102" s="1">
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B103" s="1">
         <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B104" s="1">
         <v>11</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B105" s="1">
         <v>13</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B106" s="1">
         <v>14</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B107" s="1">
         <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B108" s="1">
         <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B110" s="1">
         <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B111" s="1">
         <v>4</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B112" s="1">
         <v>14</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B113" s="1">
         <v>6</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B114" s="1">
         <v>13</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B115" s="1">
         <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B116" s="1">
         <v>12</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B117" s="1">
         <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B118" s="1">
         <v>14</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B119" s="1">
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B120" s="1">
         <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B121" s="1">
         <v>10</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B122" s="1">
         <v>13</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B123" s="1">
         <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B124" s="1">
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B125" s="1">
         <v>9</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B126" s="1">
         <v>3</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B127" s="1">
         <v>6</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B128" s="1">
         <v>10</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B129" s="1">
         <v>14</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B130" s="1">
         <v>8</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B131" s="1">
         <v>11</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B132" s="1">
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B133" s="1">
         <v>12</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B134" s="1">
         <v>4</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B135" s="1">
         <v>7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B136" s="1">
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B137" s="1">
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B138" s="1">
         <v>3</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B139" s="1">
         <v>7</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B140" s="1">
         <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B141" s="1">
         <v>11</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B142" s="1">
         <v>8</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B143" s="1">
         <v>13</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B144" s="1">
         <v>4</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B145" s="1">
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B146" s="1">
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B147" s="1">
         <v>14</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B148" s="1">
         <v>9</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B149" s="1">
         <v>5</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
